--- a/NformTester/NformTester/Keywordscripts/600.70.30.10_UserMustChangePasswordAtNextLogin.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.70.30.10_UserMustChangePasswordAtNextLogin.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7510" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7510" uniqueCount="847">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3810,6 +3810,14 @@
   </si>
   <si>
     <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4770,8 +4778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4901,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>191</v>
@@ -6308,7 +6316,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>191</v>
@@ -6584,7 +6592,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>191</v>
@@ -6928,7 +6936,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>191</v>
@@ -7335,7 +7343,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>191</v>

--- a/NformTester/NformTester/Keywordscripts/600.70.30.10_UserMustChangePasswordAtNextLogin.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.70.30.10_UserMustChangePasswordAtNextLogin.xlsx
@@ -4778,8 +4778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6316,7 +6316,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>191</v>
